--- a/Song Rankdowns/Sheet generator/output.xlsx
+++ b/Song Rankdowns/Sheet generator/output.xlsx
@@ -26,7 +26,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="18">
     <fill>
       <patternFill/>
     </fill>
@@ -35,12 +35,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
+        <fgColor rgb="00808080"/>
+        <bgColor rgb="00808080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EA9999"/>
+        <bgColor rgb="00EA9999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F9CB9C"/>
+        <bgColor rgb="00F9CB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFE599"/>
+        <bgColor rgb="00FFE599"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B6D7A8"/>
+        <bgColor rgb="00B6D7A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B45F06"/>
+        <bgColor rgb="00B45F06"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B7B7B7"/>
+        <bgColor rgb="00B7B7B7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BF9000"/>
+        <bgColor rgb="00BF9000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F4CCCC"/>
+        <bgColor rgb="00F4CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FCE5CD"/>
+        <bgColor rgb="00FCE5CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF2CC"/>
+        <bgColor rgb="00FFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9EAD3"/>
+        <bgColor rgb="00D9EAD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E69138"/>
+        <bgColor rgb="00E69138"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9D9D9"/>
+        <bgColor rgb="00D9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F1C232"/>
+        <bgColor rgb="00F1C232"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -55,10 +139,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -424,7 +522,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,56 +530,441 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
+    <col width="3" customWidth="1" min="1" max="1"/>
     <col width="3" customWidth="1" min="3" max="3"/>
+    <col width="3" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr"/>
-      <c r="B1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr"/>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Place:</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Score:</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>hotline bling</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr"/>
-      <c r="D1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr"/>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>15th</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>woohoo</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr"/>
-      <c r="D2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr"/>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>14th</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr"/>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>vacation</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr"/>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>abba</t>
-        </is>
-      </c>
       <c r="C4" s="2" t="inlineStr"/>
-      <c r="D4" t="n">
-        <v>1</v>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>13th</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>bruja</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>12th</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr"/>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>bruja</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>11th</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr"/>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>bruja</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>10th</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="G7" s="7" t="inlineStr">
+        <is>
+          <t>3rd Place Vote:</t>
+        </is>
+      </c>
+      <c r="H7" s="8" t="inlineStr">
+        <is>
+          <t>Explain Why You're Voting This Song:</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>bruja</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr"/>
+      <c r="D8" s="7" t="inlineStr">
+        <is>
+          <t>9th</t>
+        </is>
+      </c>
+      <c r="E8" s="8" t="inlineStr"/>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="G8" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">joe's Vote: </t>
+        </is>
+      </c>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>opinion</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>bruja</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr">
+        <is>
+          <t>8th</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr"/>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">jane's Vote: </t>
+        </is>
+      </c>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>opinion</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>bruja</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr"/>
+      <c r="D10" s="7" t="inlineStr">
+        <is>
+          <t>7th</t>
+        </is>
+      </c>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sasha velour's Vote: </t>
+        </is>
+      </c>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>opinion</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>bruja</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr"/>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>6th</t>
+        </is>
+      </c>
+      <c r="E11" s="10" t="inlineStr"/>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eliminated Song: </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>bruja</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr"/>
+      <c r="D12" s="9" t="inlineStr">
+        <is>
+          <t>5th</t>
+        </is>
+      </c>
+      <c r="E12" s="10" t="inlineStr"/>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>bruja</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr"/>
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="E13" s="10" t="inlineStr"/>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>bruja</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr"/>
+      <c r="D14" s="11" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="E14" s="12" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>anaconda</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr"/>
+      <c r="D15" s="13" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="E15" s="14" t="inlineStr"/>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MASS OF THE FERMENTING DERGS</t>
+        </is>
+      </c>
+      <c r="D16" s="15" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="E16" s="16" t="inlineStr"/>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
       </c>
     </row>
   </sheetData>
